--- a/exel files/deseq2/full_table_with_secretion_predictions_anti17.xlsx
+++ b/exel files/deseq2/full_table_with_secretion_predictions_anti17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive - University of Haifa\Documents\HAIFA\research\data analyzing\mapping\deseq2\output\treatment - downup regulation\signalp0.6 res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D6E736-E0F1-4628-97BC-1809DC7CC461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F896F9-1FB3-4A0B-9609-3216186D9548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$X$1:$X$720</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$720</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,6 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -44,6 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 no core gene or regulatory ones downregulated</t>
@@ -58,6 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -66,6 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 no core genes downregulated</t>
@@ -80,6 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -88,6 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 no core genes downregulated</t>
@@ -102,6 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -110,6 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 trasport</t>
@@ -6192,15 +6213,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6215,7 +6238,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6247,7 +6300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6257,12 +6310,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6563,11 +6627,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="68.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -7388,7 +7457,7 @@
       <c r="L20" t="s">
         <v>1999</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -7429,7 +7498,7 @@
       <c r="L21" t="s">
         <v>1999</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -7470,7 +7539,7 @@
       <c r="L22" t="s">
         <v>1999</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -8642,7 +8711,7 @@
       <c r="H53" t="s">
         <v>580</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="10" t="s">
         <v>635</v>
       </c>
       <c r="J53" t="s">
@@ -8984,7 +9053,7 @@
       <c r="H62" t="s">
         <v>580</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="10" t="s">
         <v>644</v>
       </c>
       <c r="J62" t="s">
@@ -9022,7 +9091,7 @@
       <c r="H63" t="s">
         <v>580</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="9" t="s">
         <v>645</v>
       </c>
       <c r="J63" t="s">
@@ -9060,7 +9129,7 @@
       <c r="H64" t="s">
         <v>580</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="9" t="s">
         <v>646</v>
       </c>
       <c r="J64" t="s">
@@ -9098,7 +9167,7 @@
       <c r="H65" t="s">
         <v>580</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="9" t="s">
         <v>647</v>
       </c>
       <c r="J65" t="s">
@@ -9174,7 +9243,7 @@
       <c r="H67" t="s">
         <v>580</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="10" t="s">
         <v>649</v>
       </c>
       <c r="J67" t="s">
@@ -9326,7 +9395,7 @@
       <c r="H71" t="s">
         <v>580</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="10" t="s">
         <v>653</v>
       </c>
       <c r="J71" t="s">
@@ -9978,7 +10047,7 @@
       <c r="H88" t="s">
         <v>580</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="10" t="s">
         <v>670</v>
       </c>
       <c r="J88" t="s">
@@ -10449,7 +10518,7 @@
       <c r="L100" t="s">
         <v>1999</v>
       </c>
-      <c r="T100" t="s">
+      <c r="T100" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -10490,7 +10559,7 @@
       <c r="L101" t="s">
         <v>1999</v>
       </c>
-      <c r="T101" t="s">
+      <c r="T101" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -10519,7 +10588,7 @@
       <c r="H102" t="s">
         <v>580</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="10" t="s">
         <v>684</v>
       </c>
       <c r="J102" t="s">
@@ -10861,7 +10930,7 @@
       <c r="H111" t="s">
         <v>580</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="10" t="s">
         <v>693</v>
       </c>
       <c r="J111" t="s">
@@ -10899,7 +10968,7 @@
       <c r="H112" t="s">
         <v>580</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="10" t="s">
         <v>694</v>
       </c>
       <c r="J112" t="s">
@@ -11244,7 +11313,7 @@
       <c r="H121" t="s">
         <v>580</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="10" t="s">
         <v>703</v>
       </c>
       <c r="J121" t="s">
@@ -11510,7 +11579,7 @@
       <c r="H128" t="s">
         <v>580</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="10" t="s">
         <v>710</v>
       </c>
       <c r="J128" t="s">
@@ -11548,7 +11617,7 @@
       <c r="H129" t="s">
         <v>580</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="10" t="s">
         <v>711</v>
       </c>
       <c r="J129" t="s">
@@ -15027,7 +15096,7 @@
       <c r="H220" t="s">
         <v>580</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" s="9" t="s">
         <v>802</v>
       </c>
       <c r="J220" t="s">
@@ -15539,7 +15608,7 @@
       <c r="M233" t="s">
         <v>2005</v>
       </c>
-      <c r="AD233" s="3" t="s">
+      <c r="AD233" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -15583,7 +15652,7 @@
       <c r="M234" t="s">
         <v>2005</v>
       </c>
-      <c r="AC234" s="3" t="s">
+      <c r="AC234" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -15627,7 +15696,7 @@
       <c r="M235" t="s">
         <v>2006</v>
       </c>
-      <c r="AC235" s="3" t="s">
+      <c r="AC235" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -15706,7 +15775,7 @@
       <c r="L237" t="s">
         <v>1999</v>
       </c>
-      <c r="AB237" s="4" t="s">
+      <c r="AB237" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -15750,7 +15819,7 @@
       <c r="M238" t="s">
         <v>2005</v>
       </c>
-      <c r="AB238" s="3" t="s">
+      <c r="AB238" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -15794,7 +15863,7 @@
       <c r="M239" t="s">
         <v>2005</v>
       </c>
-      <c r="AA239" s="3" t="s">
+      <c r="AA239" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -16063,7 +16132,7 @@
       <c r="L246" t="s">
         <v>1999</v>
       </c>
-      <c r="Z246" t="s">
+      <c r="Z246" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -16373,7 +16442,7 @@
       <c r="L254" t="s">
         <v>1999</v>
       </c>
-      <c r="Y254" t="s">
+      <c r="Y254" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -16417,7 +16486,7 @@
       <c r="M255" t="s">
         <v>2008</v>
       </c>
-      <c r="Y255" s="3" t="s">
+      <c r="Y255" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -16458,7 +16527,7 @@
       <c r="L256" t="s">
         <v>1999</v>
       </c>
-      <c r="Y256" t="s">
+      <c r="Y256" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -16540,7 +16609,7 @@
       <c r="M258" t="s">
         <v>2005</v>
       </c>
-      <c r="Y258" s="3" t="s">
+      <c r="Y258" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -17303,7 +17372,7 @@
       <c r="L278" t="s">
         <v>1999</v>
       </c>
-      <c r="V278" t="s">
+      <c r="V278" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -17344,7 +17413,7 @@
       <c r="L279" t="s">
         <v>1999</v>
       </c>
-      <c r="V279" t="s">
+      <c r="V279" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -17385,7 +17454,7 @@
       <c r="L280" t="s">
         <v>1999</v>
       </c>
-      <c r="V280" t="s">
+      <c r="V280" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -17464,7 +17533,7 @@
       <c r="L282" t="s">
         <v>1999</v>
       </c>
-      <c r="V282" t="s">
+      <c r="V282" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -17505,7 +17574,7 @@
       <c r="L283" t="s">
         <v>1999</v>
       </c>
-      <c r="V283" t="s">
+      <c r="V283" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -17546,7 +17615,7 @@
       <c r="L284" t="s">
         <v>1999</v>
       </c>
-      <c r="V284" t="s">
+      <c r="V284" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -17587,7 +17656,7 @@
       <c r="L285" t="s">
         <v>1999</v>
       </c>
-      <c r="V285" t="s">
+      <c r="V285" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -19186,7 +19255,7 @@
       <c r="L327" t="s">
         <v>1999</v>
       </c>
-      <c r="T327" t="s">
+      <c r="T327" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -19265,7 +19334,7 @@
       <c r="L329" t="s">
         <v>1999</v>
       </c>
-      <c r="T329" t="s">
+      <c r="T329" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -19306,7 +19375,7 @@
       <c r="L330" t="s">
         <v>1999</v>
       </c>
-      <c r="T330" t="s">
+      <c r="T330" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -19347,7 +19416,7 @@
       <c r="L331" t="s">
         <v>1999</v>
       </c>
-      <c r="T331" t="s">
+      <c r="T331" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -19388,7 +19457,7 @@
       <c r="L332" t="s">
         <v>2000</v>
       </c>
-      <c r="T332" t="s">
+      <c r="T332" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -19809,7 +19878,7 @@
       <c r="L343" t="s">
         <v>1999</v>
       </c>
-      <c r="S343" t="s">
+      <c r="S343" s="4" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -19850,7 +19919,7 @@
       <c r="L344" t="s">
         <v>1999</v>
       </c>
-      <c r="S344" t="s">
+      <c r="S344" s="4" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -20613,7 +20682,7 @@
       <c r="L364" t="s">
         <v>1999</v>
       </c>
-      <c r="R364" t="s">
+      <c r="R364" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21186,7 +21255,7 @@
       <c r="L379" t="s">
         <v>2000</v>
       </c>
-      <c r="P379" t="s">
+      <c r="P379" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21227,7 +21296,7 @@
       <c r="L380" t="s">
         <v>1999</v>
       </c>
-      <c r="P380" t="s">
+      <c r="P380" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21268,7 +21337,7 @@
       <c r="L381" t="s">
         <v>1999</v>
       </c>
-      <c r="P381" t="s">
+      <c r="P381" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21309,7 +21378,7 @@
       <c r="L382" t="s">
         <v>1999</v>
       </c>
-      <c r="P382" t="s">
+      <c r="P382" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21350,7 +21419,7 @@
       <c r="L383" t="s">
         <v>1999</v>
       </c>
-      <c r="P383" t="s">
+      <c r="P383" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21394,7 +21463,7 @@
       <c r="M384" t="s">
         <v>2009</v>
       </c>
-      <c r="P384" s="3" t="s">
+      <c r="P384" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21438,7 +21507,7 @@
       <c r="M385" t="s">
         <v>2005</v>
       </c>
-      <c r="P385" s="3" t="s">
+      <c r="P385" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21482,7 +21551,7 @@
       <c r="M386" t="s">
         <v>2010</v>
       </c>
-      <c r="P386" s="3" t="s">
+      <c r="P386" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -21567,7 +21636,7 @@
       <c r="M388" t="s">
         <v>2011</v>
       </c>
-      <c r="P388" t="s">
+      <c r="P388" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -22561,7 +22630,7 @@
       <c r="L414" t="s">
         <v>1999</v>
       </c>
-      <c r="O414" t="s">
+      <c r="O414" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -22602,7 +22671,7 @@
       <c r="L415" t="s">
         <v>1999</v>
       </c>
-      <c r="O415" t="s">
+      <c r="O415" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -22643,7 +22712,7 @@
       <c r="L416" t="s">
         <v>1999</v>
       </c>
-      <c r="O416" t="s">
+      <c r="O416" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -22684,7 +22753,7 @@
       <c r="L417" t="s">
         <v>1999</v>
       </c>
-      <c r="O417" t="s">
+      <c r="O417" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -22725,7 +22794,7 @@
       <c r="L418" t="s">
         <v>1999</v>
       </c>
-      <c r="O418" t="s">
+      <c r="O418" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -22804,7 +22873,7 @@
       <c r="L420" t="s">
         <v>1999</v>
       </c>
-      <c r="O420" t="s">
+      <c r="O420" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -22845,7 +22914,7 @@
       <c r="L421" t="s">
         <v>1999</v>
       </c>
-      <c r="O421" t="s">
+      <c r="O421" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -23728,7 +23797,7 @@
       <c r="M444" t="s">
         <v>2005</v>
       </c>
-      <c r="AD444" s="3" t="s">
+      <c r="AD444" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -23772,7 +23841,7 @@
       <c r="M445" t="s">
         <v>2005</v>
       </c>
-      <c r="AC445" s="3" t="s">
+      <c r="AC445" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -23813,7 +23882,7 @@
       <c r="L446" t="s">
         <v>1999</v>
       </c>
-      <c r="AA446" t="s">
+      <c r="AA446" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -23857,7 +23926,7 @@
       <c r="M447" t="s">
         <v>2005</v>
       </c>
-      <c r="AA447" s="3" t="s">
+      <c r="AA447" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -24243,7 +24312,7 @@
       <c r="M457" t="s">
         <v>2005</v>
       </c>
-      <c r="Y457" s="3" t="s">
+      <c r="Y457" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -24664,7 +24733,7 @@
       <c r="L468" t="s">
         <v>1999</v>
       </c>
-      <c r="V468" t="s">
+      <c r="V468" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -24705,7 +24774,7 @@
       <c r="L469" t="s">
         <v>1999</v>
       </c>
-      <c r="V469" t="s">
+      <c r="V469" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -24784,7 +24853,7 @@
       <c r="L471" t="s">
         <v>1999</v>
       </c>
-      <c r="V471" t="s">
+      <c r="V471" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -24825,7 +24894,7 @@
       <c r="L472" t="s">
         <v>1999</v>
       </c>
-      <c r="V472" t="s">
+      <c r="V472" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -24866,7 +24935,7 @@
       <c r="L473" t="s">
         <v>1999</v>
       </c>
-      <c r="V473" t="s">
+      <c r="V473" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -24907,7 +24976,7 @@
       <c r="L474" t="s">
         <v>1999</v>
       </c>
-      <c r="V474" t="s">
+      <c r="V474" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -25898,7 +25967,7 @@
       <c r="L500" t="s">
         <v>1999</v>
       </c>
-      <c r="T500" t="s">
+      <c r="T500" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -25977,7 +26046,7 @@
       <c r="L502" t="s">
         <v>1999</v>
       </c>
-      <c r="T502" t="s">
+      <c r="T502" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -26018,7 +26087,7 @@
       <c r="L503" t="s">
         <v>1999</v>
       </c>
-      <c r="T503" t="s">
+      <c r="T503" s="6" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -26059,7 +26128,7 @@
       <c r="L504" t="s">
         <v>1999</v>
       </c>
-      <c r="T504" t="s">
+      <c r="T504" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -26100,7 +26169,7 @@
       <c r="L505" t="s">
         <v>2000</v>
       </c>
-      <c r="T505" t="s">
+      <c r="T505" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -26673,7 +26742,7 @@
       <c r="L520" t="s">
         <v>1999</v>
       </c>
-      <c r="S520" t="s">
+      <c r="S520" s="4" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -27170,7 +27239,7 @@
       <c r="L533" t="s">
         <v>2000</v>
       </c>
-      <c r="P533" t="s">
+      <c r="P533" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -27211,7 +27280,7 @@
       <c r="L534" t="s">
         <v>1999</v>
       </c>
-      <c r="P534" t="s">
+      <c r="P534" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -27252,7 +27321,7 @@
       <c r="L535" t="s">
         <v>1999</v>
       </c>
-      <c r="P535" t="s">
+      <c r="P535" s="3" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -27296,7 +27365,7 @@
       <c r="M536" t="s">
         <v>2009</v>
       </c>
-      <c r="P536" s="3" t="s">
+      <c r="P536" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -27340,7 +27409,7 @@
       <c r="M537" t="s">
         <v>2005</v>
       </c>
-      <c r="P537" s="3" t="s">
+      <c r="P537" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -27384,7 +27453,7 @@
       <c r="M538" t="s">
         <v>2011</v>
       </c>
-      <c r="P538" s="3" t="s">
+      <c r="P538" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -27469,7 +27538,7 @@
       <c r="M540" t="s">
         <v>2011</v>
       </c>
-      <c r="P540" t="s">
+      <c r="P540" s="8" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -31661,7 +31730,7 @@
       <c r="L650" t="s">
         <v>1999</v>
       </c>
-      <c r="T650" t="s">
+      <c r="T650" s="7" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -33336,7 +33405,7 @@
       <c r="L694" t="s">
         <v>1999</v>
       </c>
-      <c r="P694" t="s">
+      <c r="P694" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -33377,7 +33446,7 @@
       <c r="L695" t="s">
         <v>1999</v>
       </c>
-      <c r="P695" t="s">
+      <c r="P695" s="5" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -34344,6 +34413,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L720" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
